--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_20-46.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_20-46.xlsx
@@ -194,6 +194,9 @@
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-EIPICO 8MG/2ML I.M/I.V 5 AMP</t>
   </si>
   <si>
@@ -302,6 +305,9 @@
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
     <t>NAN PRE MILK 400 GM</t>
   </si>
   <si>
@@ -326,9 +332,6 @@
     <t>PAROFEN 30 OBLONG TAB.</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>PERLOC 40MG 14 F.C.TAB.</t>
   </si>
   <si>
@@ -449,7 +452,7 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>7806:0</t>
+    <t>7800:0</t>
   </si>
   <si>
     <t>XITHRONE 500MG 3 F.C.TAB.</t>
@@ -488,7 +491,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>-4:0</t>
+    <t>-2:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -2207,17 +2210,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2225,7 +2228,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2251,7 +2254,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2277,7 +2280,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2303,7 +2306,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2329,7 +2332,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2355,7 +2358,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2381,7 +2384,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2407,7 +2410,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2433,7 +2436,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2459,7 +2462,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2485,7 +2488,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2493,7 +2496,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
@@ -2511,7 +2514,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2537,7 +2540,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2545,7 +2548,7 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
@@ -2563,7 +2566,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2589,7 +2592,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2615,7 +2618,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2623,7 +2626,7 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
@@ -2641,7 +2644,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2667,7 +2670,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2693,7 +2696,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2719,7 +2722,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2745,7 +2748,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2771,7 +2774,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2797,7 +2800,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2823,7 +2826,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2849,7 +2852,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2875,7 +2878,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2901,7 +2904,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2927,7 +2930,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2935,7 +2938,7 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
@@ -2953,7 +2956,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2979,7 +2982,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -3005,7 +3008,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -3031,7 +3034,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -3057,7 +3060,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -3083,7 +3086,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -3091,17 +3094,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>380</v>
+        <v>39</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3109,7 +3112,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3117,13 +3120,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
@@ -3135,7 +3138,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3143,13 +3146,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
@@ -3161,7 +3164,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3169,13 +3172,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
@@ -3187,7 +3190,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3195,13 +3198,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
@@ -3213,7 +3216,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3227,7 +3230,7 @@
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
@@ -3239,7 +3242,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3247,13 +3250,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
@@ -3265,7 +3268,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3273,17 +3276,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>21.620000000000001</v>
+        <v>102</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3299,17 +3302,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>75</v>
+        <v>44.619999999999997</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
-        <v>1</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3325,13 +3328,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
@@ -3351,13 +3354,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
@@ -3377,17 +3380,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3395,7 +3398,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3403,17 +3406,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3429,13 +3432,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
@@ -3455,17 +3458,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>14.1</v>
+        <v>18</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3473,7 +3476,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3481,17 +3484,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>65</v>
+        <v>14.1</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
-        <v>1</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3507,17 +3510,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3539,7 +3542,7 @@
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>33.600000000000001</v>
+        <v>60</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
@@ -3565,7 +3568,7 @@
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>138</v>
+        <v>33.600000000000001</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
@@ -3585,13 +3588,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
@@ -3603,7 +3606,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3611,17 +3614,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3629,7 +3632,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3637,17 +3640,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>149.5</v>
+        <v>21</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3663,17 +3666,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>62</v>
+        <v>149.5</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3689,17 +3692,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3715,17 +3718,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3741,13 +3744,13 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
@@ -3767,17 +3770,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>273</v>
+        <v>140</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3793,17 +3796,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>60</v>
+        <v>273</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3825,7 +3828,7 @@
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
@@ -3845,17 +3848,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>144</v>
+        <v>234</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3871,17 +3874,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3897,17 +3900,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3923,13 +3926,13 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>97.019999999999996</v>
+        <v>80</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
@@ -3941,7 +3944,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3949,17 +3952,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>95</v>
+        <v>97.019999999999996</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3981,11 +3984,11 @@
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -4001,17 +4004,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -4027,17 +4030,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4053,17 +4056,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4079,17 +4082,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4105,17 +4108,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
-        <v>0.66000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4123,7 +4126,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4131,17 +4134,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
-        <v>0.5</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4157,17 +4160,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>27.280000000000001</v>
+        <v>70</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10">
-        <v>11</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4175,7 +4178,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4183,17 +4186,17 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>63</v>
+        <v>42.280000000000001</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4209,13 +4212,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>245</v>
+        <v>63</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="10">
@@ -4235,13 +4238,13 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>120</v>
+        <v>245</v>
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="10">
@@ -4261,13 +4264,13 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>23.5</v>
+        <v>120</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="10">
@@ -4279,7 +4282,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4287,13 +4290,13 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>15</v>
+        <v>23.5</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="10">
@@ -4313,13 +4316,13 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="10">
@@ -4331,7 +4334,7 @@
         <v>124</v>
       </c>
       <c t="s" r="B127" s="7">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -4339,13 +4342,13 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="10">
@@ -4365,17 +4368,17 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="10">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" ht="24.75" customHeight="1">
@@ -4383,7 +4386,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4391,17 +4394,17 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="10">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" ht="25.5" customHeight="1">
@@ -4409,7 +4412,7 @@
         <v>127</v>
       </c>
       <c t="s" r="B130" s="7">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4417,13 +4420,13 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>24</v>
+        <v>25.98</v>
       </c>
       <c r="M130" s="9"/>
       <c r="N130" s="10">
@@ -4435,7 +4438,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B131" s="7">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4443,17 +4446,17 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M131" s="9"/>
       <c r="N131" s="10">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -4461,7 +4464,7 @@
         <v>129</v>
       </c>
       <c t="s" r="B132" s="7">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -4469,17 +4472,17 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M132" s="9"/>
       <c r="N132" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" ht="25.5" customHeight="1">
@@ -4487,7 +4490,7 @@
         <v>130</v>
       </c>
       <c t="s" r="B133" s="7">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -4495,17 +4498,17 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M133" s="9"/>
       <c r="N133" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" ht="24.75" customHeight="1">
@@ -4521,13 +4524,13 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c t="s" r="H134" s="8">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="9">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M134" s="9"/>
       <c r="N134" s="10">
@@ -4539,7 +4542,7 @@
         <v>132</v>
       </c>
       <c t="s" r="B135" s="7">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -4547,13 +4550,13 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>8</v>
+        <v>169</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M135" s="9"/>
       <c r="N135" s="10">
@@ -4573,13 +4576,13 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c t="s" r="H136" s="8">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M136" s="9"/>
       <c r="N136" s="10">
@@ -4591,7 +4594,7 @@
         <v>134</v>
       </c>
       <c t="s" r="B137" s="7">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -4599,13 +4602,13 @@
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c t="s" r="H137" s="8">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
       <c r="L137" s="9">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="M137" s="9"/>
       <c r="N137" s="10">
@@ -4625,17 +4628,17 @@
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c t="s" r="H138" s="8">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="M138" s="9"/>
       <c r="N138" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" ht="24.75" customHeight="1">
@@ -4643,7 +4646,7 @@
         <v>136</v>
       </c>
       <c t="s" r="B139" s="7">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -4651,13 +4654,13 @@
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c t="s" r="H139" s="8">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M139" s="9"/>
       <c r="N139" s="10">
@@ -4677,13 +4680,13 @@
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c t="s" r="H140" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
       <c r="L140" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M140" s="9"/>
       <c r="N140" s="10">
@@ -4703,13 +4706,13 @@
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c t="s" r="H141" s="8">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
       <c r="L141" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M141" s="9"/>
       <c r="N141" s="10">
@@ -4729,13 +4732,13 @@
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c t="s" r="H142" s="8">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
       <c r="L142" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M142" s="9"/>
       <c r="N142" s="10">
@@ -4743,37 +4746,63 @@
       </c>
     </row>
     <row r="143" ht="25.5" customHeight="1">
-      <c r="K143" s="11">
-        <v>12552.57</v>
-      </c>
-      <c r="L143" s="11"/>
-      <c r="M143" s="11"/>
-      <c r="N143" s="11"/>
-    </row>
-    <row r="144" ht="17.25" customHeight="1">
-      <c t="s" r="A144" s="12">
+      <c r="A143" s="6">
+        <v>140</v>
+      </c>
+      <c t="s" r="B143" s="7">
         <v>179</v>
       </c>
-      <c r="B144" s="12"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="12"/>
-      <c r="E144" s="12"/>
-      <c t="s" r="F144" s="13">
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c t="s" r="H143" s="8">
+        <v>11</v>
+      </c>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="9">
+        <v>300</v>
+      </c>
+      <c r="M143" s="9"/>
+      <c r="N143" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="K144" s="11">
+        <v>12896.549999999999</v>
+      </c>
+      <c r="L144" s="11"/>
+      <c r="M144" s="11"/>
+      <c r="N144" s="11"/>
+    </row>
+    <row r="145" ht="16.5" customHeight="1">
+      <c t="s" r="A145" s="12">
         <v>180</v>
       </c>
-      <c r="G144" s="13"/>
-      <c r="H144" s="14"/>
-      <c t="s" r="I144" s="15">
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c t="s" r="F145" s="13">
         <v>181</v>
       </c>
-      <c r="J144" s="15"/>
-      <c r="K144" s="15"/>
-      <c r="L144" s="15"/>
-      <c r="M144" s="15"/>
-      <c r="N144" s="15"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="14"/>
+      <c t="s" r="I145" s="15">
+        <v>182</v>
+      </c>
+      <c r="J145" s="15"/>
+      <c r="K145" s="15"/>
+      <c r="L145" s="15"/>
+      <c r="M145" s="15"/>
+      <c r="N145" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="428">
+  <mergeCells count="431">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -5198,10 +5227,13 @@
     <mergeCell ref="B142:G142"/>
     <mergeCell ref="H142:K142"/>
     <mergeCell ref="L142:M142"/>
-    <mergeCell ref="K143:N143"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="I144:N144"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="K144:N144"/>
+    <mergeCell ref="A145:E145"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="I145:N145"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
